--- a/WriteFile.xlsx
+++ b/WriteFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DuAn1\ProjectDuAn1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB299E29-90C4-4488-B0CE-3964915A03EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D371B1D-41D4-45D9-87FA-F5E9C7F89880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,6 +43,18 @@
     <t>TrangThai</t>
   </si>
   <si>
+    <t>100000000000101</t>
+  </si>
+  <si>
+    <t>LSP4</t>
+  </si>
+  <si>
+    <t>2022-11-25</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>100000000000001</t>
   </si>
   <si>
@@ -52,9 +64,6 @@
     <t>2022-11-24</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>100000000000002</t>
   </si>
   <si>
@@ -241,9 +250,6 @@
     <t>100000000000061</t>
   </si>
   <si>
-    <t>LSP4</t>
-  </si>
-  <si>
     <t>100000000000062</t>
   </si>
   <si>
@@ -365,12 +371,6 @@
   </si>
   <si>
     <t>100000000000100</t>
-  </si>
-  <si>
-    <t>100000000000101</t>
-  </si>
-  <si>
-    <t>2022-11-25</t>
   </si>
 </sst>
 </file>
@@ -724,11 +724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -756,7 +759,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -765,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -779,134 +782,134 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -917,42 +920,42 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -963,42 +966,42 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1009,19 +1012,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1032,19 +1035,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1055,19 +1058,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1078,19 +1081,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1101,19 +1104,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1124,19 +1127,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1147,19 +1150,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1170,19 +1173,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1193,19 +1196,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1216,19 +1219,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1239,19 +1242,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1262,19 +1265,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1285,19 +1288,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1308,19 +1311,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1331,65 +1334,65 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1400,19 +1403,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1423,19 +1426,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1446,19 +1449,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1469,19 +1472,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1492,19 +1495,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1515,19 +1518,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1538,19 +1541,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1561,19 +1564,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1584,19 +1587,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1607,19 +1610,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1630,19 +1633,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1653,19 +1656,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1676,19 +1679,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1699,19 +1702,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1722,19 +1725,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1745,42 +1748,42 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
         <v>56</v>
       </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" t="s">
-        <v>53</v>
-      </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1791,19 +1794,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1814,19 +1817,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1837,19 +1840,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1860,19 +1863,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1883,42 +1886,42 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
         <v>10</v>
@@ -1929,19 +1932,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -1952,19 +1955,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -1975,19 +1978,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -1998,19 +2001,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2021,19 +2024,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2044,19 +2047,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2067,19 +2070,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2090,19 +2093,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2113,19 +2116,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -2136,19 +2139,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2159,19 +2162,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2182,19 +2185,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2205,19 +2208,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
         <v>10</v>
@@ -2228,19 +2231,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2251,19 +2254,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2274,19 +2277,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2297,19 +2300,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2320,19 +2323,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2343,19 +2346,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2366,19 +2369,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2389,19 +2392,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
@@ -2412,19 +2415,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
@@ -2435,19 +2438,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2458,19 +2461,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2481,19 +2484,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
@@ -2504,19 +2507,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2527,19 +2530,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
@@ -2550,19 +2553,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
         <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2573,19 +2576,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
         <v>93</v>
       </c>
-      <c r="C81" t="s">
-        <v>91</v>
-      </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -2596,19 +2599,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
@@ -2619,19 +2622,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
         <v>93</v>
       </c>
-      <c r="B83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" t="s">
-        <v>91</v>
-      </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2642,19 +2645,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
         <v>10</v>
@@ -2665,19 +2668,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -2688,19 +2691,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
@@ -2711,19 +2714,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -2734,19 +2737,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
@@ -2757,19 +2760,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -2780,19 +2783,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F90" t="s">
         <v>10</v>
@@ -2803,19 +2806,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -2826,19 +2829,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -2849,19 +2852,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -2872,19 +2875,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s">
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -2895,19 +2898,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
         <v>108</v>
       </c>
-      <c r="C95" t="s">
-        <v>106</v>
-      </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -2918,19 +2921,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
@@ -2941,19 +2944,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -2964,19 +2967,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" t="s">
         <v>108</v>
       </c>
-      <c r="B98" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -2987,19 +2990,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3010,19 +3013,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -3033,19 +3036,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -3056,19 +3059,19 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
